--- a/data/trans_bre/P32C-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P32C-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,11; 1,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 0,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; -0,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 13,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 152,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 2,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; -0,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 1,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 249,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 207,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,45%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 0,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,41; -1,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; -0,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 1,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 1,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,19; -1,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 2,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; -0,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 652,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,22%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,73; -1,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 4,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,54; -1,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 1,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,54; 181,28</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,55%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; -0,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; -0,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,99; -0,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; -0,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -3,05</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,5%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,82%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 0,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; -1,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; -0,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 1,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,91; 16,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -57,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,23; -26,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,55; 104,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32C-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 13,9</t>
+          <t>0,17; 13,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,29</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-31,45%</t>
+          <t>-29,44%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,31</t>
+          <t>-1,98; 1,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,63; -0,3</t>
+          <t>-2,59; -0,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-34,22%</t>
+          <t>-35,35%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 1,52</t>
+          <t>-3,39; 1,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-88,54; 181,28</t>
+          <t>-88,58; 187,74</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,22 +1120,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-78,55%</t>
+          <t>-90,0%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,05; -0,41</t>
+          <t>-2,59; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,45; -0,41</t>
+          <t>-5,72; -0,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,99; -0,67</t>
+          <t>-5,17; -0,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,2; -0,14</t>
+          <t>-3,52; -0,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -3,05</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-51,25%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-85,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-65,94%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-16,82%</t>
+          <t>-36,6%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-9,87; -1,09</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-6,75; 0,0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 5,0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-51,25%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-85,5%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-65,94%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-24,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-1,81; 0,09</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-2,52; -1,03</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-1,79; -0,4</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 1,07</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 0,76</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-78,91; 16,45</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-100,0; -57,08</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-88,23; -26,25</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-65,55; 104,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-72,61; 78,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P32C-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Edad-trans_bre.xlsx
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,27</t>
+          <t>-4,06; 1,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 0,11</t>
+          <t>-4,0; 0,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; -0,39</t>
+          <t>-3,69; -0,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 13,51</t>
+          <t>0,17; 13,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 152,91</t>
+          <t>-100,0; 154,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 2,42</t>
+          <t>-2,37; 2,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,65; -0,79</t>
+          <t>-3,54; -0,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,66</t>
+          <t>-2,45; 1,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,21</t>
+          <t>0,0; 3,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 249,97</t>
+          <t>-84,12; 223,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 207,88</t>
+          <t>-100,0; 220,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 0,92</t>
+          <t>-1,21; 1,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; -1,38</t>
+          <t>-4,32; -1,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; -0,24</t>
+          <t>-2,77; -0,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,3</t>
+          <t>-2,08; 1,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,41</t>
+          <t>-2,5; 1,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; -1,08</t>
+          <t>-4,88; -1,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,14</t>
+          <t>-1,52; 1,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,59; -0,29</t>
+          <t>-2,46; -0,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 652,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; -1,47</t>
+          <t>-7,22; -1,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,62</t>
+          <t>-1,43; 4,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,54; -1,19</t>
+          <t>-5,3; -1,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,49</t>
+          <t>-3,3; 1,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-88,58; 187,74</t>
+          <t>-87,85; 158,16</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 0,0</t>
+          <t>-3,03; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -0,64</t>
+          <t>-5,34; -0,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,17; -0,52</t>
+          <t>-4,89; -0,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,16</t>
+          <t>-3,5; -0,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -1,09</t>
+          <t>-10,68; -1,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 0,0</t>
+          <t>-5,85; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 5,0</t>
+          <t>-3,73; 4,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,09</t>
+          <t>-1,84; 0,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,52; -1,03</t>
+          <t>-2,42; -1,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,79; -0,4</t>
+          <t>-1,72; -0,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,76</t>
+          <t>-1,03; 0,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-78,91; 16,45</t>
+          <t>-81,15; 8,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -57,08</t>
+          <t>-96,28; -53,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-88,23; -26,25</t>
+          <t>-86,06; -15,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-72,61; 78,45</t>
+          <t>-69,78; 93,38</t>
         </is>
       </c>
     </row>
